--- a/neptune/load_times.xlsx
+++ b/neptune/load_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/github/vandycite/neptune/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C770C6-FAD0-6146-A040-1DCC3912F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E4B17-DF54-0F4B-8ADA-95070AD84057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29660" yWindow="11000" windowWidth="19660" windowHeight="14800" xr2:uid="{F523D0E7-6D21-1B4A-92BA-880AAE2E7A63}"/>
+    <workbookView xWindow="7660" yWindow="9760" windowWidth="19660" windowHeight="14800" xr2:uid="{F523D0E7-6D21-1B4A-92BA-880AAE2E7A63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1090,15 +1090,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>322385</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35656</xdr:rowOff>
+      <xdr:colOff>312616</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>35657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>563196</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>195383</xdr:rowOff>
+      <xdr:colOff>553427</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>195384</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1446,7 +1446,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
